--- a/Document/Book1.xlsx
+++ b/Document/Book1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Java_Web\Project_Cuoi_Ki\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Java_Web\Project_Cuoi_Ki\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A0E5CD43-E99A-4D94-AE0F-B17E65DA49CC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{354E93B2-947F-4669-8DBE-BAA7300957E9}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,7 +92,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,11 +454,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09C1496-59B1-4437-994A-E8C2BCBAB811}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Document/Book1.xlsx
+++ b/Document/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Anime</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>Thời gian mà anime phát hành  xuan 0 ha 1 thu 2 dong 3</t>
+  </si>
+  <si>
+    <t>wallpaper</t>
+  </si>
+  <si>
+    <t>chua link dan toi file cach nhau bang dau        url~ulr~url</t>
   </si>
 </sst>
 </file>
@@ -455,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,69 +528,77 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A12:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Document/Book1.xlsx
+++ b/Document/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Anime</t>
   </si>
@@ -47,9 +47,6 @@
     <t>AniStatus</t>
   </si>
   <si>
-    <t>Tình trạng hiện tại của Anime: 0 - Sắp phát hành, 1- Đã hoàn thành, 2-sắp hoàn thành</t>
-  </si>
-  <si>
     <t>EpsMax</t>
   </si>
   <si>
@@ -93,6 +90,15 @@
   </si>
   <si>
     <t>chua link dan toi file cach nhau bang dau        url~ulr~url</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>kiểu phim: bluray :1 , tv series :2</t>
+  </si>
+  <si>
+    <t>Tình trạng hiện tại của Anime: 2 - Sắp phát hành, 1- Đã hoàn thành, 0-sắp hoàn thành</t>
   </si>
 </sst>
 </file>
@@ -461,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +513,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -515,90 +521,98 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="10" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="13" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A13:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
